--- a/output.xlsx
+++ b/output.xlsx
@@ -60,12 +60,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,57 +440,103 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="82" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>tc_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>tc_description</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Browser</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Executed Date</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TC003</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>To verify if "Save as Draft" button saves the
-notification as draft during creation of a new
-notification. 1.TC0012 2. Tllsore</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>chrome 120.0.6099.227</t>
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>TC001</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>To verify if "Save as Draft" button saves the notification as draft during creation of a new notification.
+1.adldofo
+2. fldldfodo</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>CHROME 134.0.6998.178</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>30Mar2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>TC001</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>To verify if "Save as Draft" button saves the notification as draft during creation of a new notification.
+1.adldofo
+2. fldldfodo</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>EDGE 134.0.3124.93</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>30Mar2025</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -60,16 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -440,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +448,7 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -497,46 +494,17 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>CHROME 134.0.6998.178</t>
+          <t>EDGE 134.0.3124.95</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>30Mar2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>TC001</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>To verify if "Save as Draft" button saves the notification as draft during creation of a new notification.
-1.adldofo
-2. fldldfodo</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>EDGE 134.0.3124.93</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>30Mar2025</t>
+          <t>01Apr2025</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -60,13 +60,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -437,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +451,7 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="31" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -494,15 +497,44 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>Windows CHROME 134.0.6998.178</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>01Apr2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>TC001</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>To verify if "Save as Draft" button saves the notification as draft during creation of a new notification.
+1.adldofo
+2. fldldfodo</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
           <t>FAILED</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>EDGE 134.0.3124.95</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>Windows EDGE 134.0.3124.93</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>01Apr2025</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -60,16 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -440,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +448,7 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="31" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -497,46 +494,17 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Windows CHROME 134.0.6998.178</t>
+          <t>Windows EDGE 134.0.3124.93</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>01Apr2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>TC001</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>To verify if "Save as Draft" button saves the notification as draft during creation of a new notification.
-1.adldofo
-2. fldldfodo</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Windows EDGE 134.0.3124.93</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>01Apr2025</t>
+          <t>03Apr2025</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -60,13 +60,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -437,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +451,7 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="28" customWidth="1" min="4" max="4"/>
+    <col width="29" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -494,15 +497,44 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>Linux CHROME 134.0.6998.165</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>03Apr2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>TC001</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>To verify if "Save as Draft" button saves the notification as draft during creation of a new notification.
+1.adldofo
+2. fldldfodo</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
           <t>FAILED</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>Windows EDGE 134.0.3124.93</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>Linux EDGE 134.0.3124.95</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>03Apr2025</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -451,7 +451,7 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="29" customWidth="1" min="4" max="4"/>
+    <col width="31" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -502,12 +502,12 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Linux CHROME 134.0.6998.165</t>
+          <t>Windows CHROME 134.0.6998.178</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>03Apr2025</t>
+          <t>04Apr2025</t>
         </is>
       </c>
     </row>
@@ -531,12 +531,12 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>Linux EDGE 134.0.3124.95</t>
+          <t>Windows EDGE 134.0.3124.93</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>03Apr2025</t>
+          <t>04Apr2025</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -60,16 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -440,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +494,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -507,36 +504,65 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>04Apr2025</t>
+          <t>05Apr2025</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>TC001</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>To verify if "Save as Draft" button saves the notification as draft during creation of a new notification.
 1.adldofo
 2. fldldfodo</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>FAILED</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Windows EDGE 134.0.3124.93</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>04Apr2025</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>05Apr2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>TC001</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>To verify if "Save as Draft" button saves the notification as draft during creation of a new notification.
+1.adldofo
+2. fldldfodo</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Windows EDGE 134.0.3124.93</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>05Apr2025</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -60,13 +60,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -437,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +485,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>TC001</t>
+          <t>TS001</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -494,7 +497,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -511,7 +514,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>TC001</t>
+          <t>TS002</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -523,12 +526,12 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Windows EDGE 134.0.3124.93</t>
+          <t>Windows CHROME 134.0.6998.178</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -540,7 +543,7 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>TC001</t>
+          <t>TS003</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -552,15 +555,131 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Windows EDGE 134.0.3124.93</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>05Apr2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>TS004</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>To verify if "Save as Draft" button saves the notification as draft during creation of a new notification.
+1.adldofo
+2. fldldfodo</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Windows EDGE 134.0.3124.93</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>05Apr2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>TS005</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>To verify if "Save as Draft" button saves the notification as draft during creation of a new notification.
+1.adldofo
+2. fldldfodo</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
           <t>FAILED</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Windows CHROME 134.0.6998.178</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>05Apr2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>TS005</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>To verify if "Save as Draft" button saves the notification as draft during creation of a new notification.
+1.adldofo
+2. fldldfodo</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Windows EDGE 134.0.3124.93</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>05Apr2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>TS001</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>To verify if "Save as Draft" button saves the notification as draft during creation of a new notification.
+1.adldofo
+2. fldldfodo</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Windows EDGE 134.0.3124.93</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>05Apr2025</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -451,7 +451,7 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="82" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="31" customWidth="1" min="4" max="4"/>
+    <col width="47" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -502,7 +502,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Windows CHROME 134.0.6998.178</t>
+          <t>Windows CHROME 134.0.6998.178 ( User: vinay )</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Windows CHROME 134.0.6998.178</t>
+          <t>Windows CHROME 134.0.6998.178 ( User: vinay )</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -543,7 +543,7 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>TS003</t>
+          <t>TS004</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Windows EDGE 134.0.3124.93</t>
+          <t>Windows EDGE 134.0.3124.93 ( User: vinay )</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -572,7 +572,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>TS004</t>
+          <t>TS003</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>Windows EDGE 134.0.3124.93</t>
+          <t>Windows EDGE 134.0.3124.93 ( User: vinay )</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>Windows CHROME 134.0.6998.178</t>
+          <t>Windows CHROME 134.0.6998.178 ( User: vinay )</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>Windows EDGE 134.0.3124.93</t>
+          <t>Windows EDGE 134.0.3124.93 ( User: vinay )</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>Windows EDGE 134.0.3124.93</t>
+          <t>Windows EDGE 134.0.3124.93 ( User: vinay )</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
